--- a/biology/Mycologie/Auguste_Marie_Hue/Auguste_Marie_Hue.xlsx
+++ b/biology/Mycologie/Auguste_Marie_Hue/Auguste_Marie_Hue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’abbé Auguste Marie Hue est un botaniste français, spécialiste des lichens, né le 15 août 1840 et mort le 22 juin 1917[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’abbé Auguste Marie Hue est un botaniste français, spécialiste des lichens, né le 15 août 1840 et mort le 22 juin 1917.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est lui qui étudie les lichens récoltés par l’expédition scientifique de la Tunisie dont les comptes rendus sont publiés par Narcisse Théophile Patouillard (1854-1926). Il étudie également les lichens rapportés par les expéditions antarctiques françaises (1903-1905 et 1908-1910), commandées par Jean-Baptiste Charcot (1867-1936). Le père Auguste Barthélemy Langlois (1832-1900) lui fait parvenir des spécimens récoltés en Louisiane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est lui qui étudie les lichens récoltés par l’expédition scientifique de la Tunisie dont les comptes rendus sont publiés par Narcisse Théophile Patouillard (1854-1926). Il étudie également les lichens rapportés par les expéditions antarctiques françaises (1903-1905 et 1908-1910), commandées par Jean-Baptiste Charcot (1867-1936). Le père Auguste Barthélemy Langlois (1832-1900) lui fait parvenir des spécimens récoltés en Louisiane.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1886 : Addenda nova ad Lichenographiam europaeam exposuit in Flora ratisbonensi Dr. W. Nylander, in ordine vero systematico disposuit A. Hue (Lechevallier, Paris).
 1897 : Lichenes (Imprimerie nationale, Paris).</t>
@@ -573,7 +589,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Acte de décès à Levallois-Perret sur Filae
